--- a/input/data/Global_Material_Data.xlsx
+++ b/input/data/Global_Material_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Branching\Mendix_BatchRun\input\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mendix WorkSpace\Mendix_BatchRun\input\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B088C5-3993-401A-9580-A3A510E977E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA62A494-5CD0-462C-9E77-1EEDB1A67424}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="603" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3799" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="215">
   <si>
     <t>Fields</t>
   </si>
@@ -613,6 +613,65 @@
   </si>
   <si>
     <t>93Create Mat. with Ref save as draft global and local  - Direct Copy_JDE .xml</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>P, Purchased</t>
+  </si>
+  <si>
+    <t>3, Best Before Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Malt Pale C6 DE Koblenz Automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CMG0006
+</t>
+  </si>
+  <si>
+    <t>18/10/2018</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>SG001OC</t>
+  </si>
+  <si>
+    <t>01, Bulk Product Related Materials</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>3, Lots must be Assigned Manually</t>
+  </si>
+  <si>
+    <t>1, On Hand Date</t>
+  </si>
+  <si>
+    <t>097, Typ. 09 - S&amp;OP - MRP</t>
+  </si>
+  <si>
+    <t>0, Not Planned</t>
+  </si>
+  <si>
+    <t>CTDB, CTS - DB Inst Non-Cap</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>07, Standard</t>
+  </si>
+  <si>
+    <t>08, Purchasing-Base Cost No Adds</t>
   </si>
 </sst>
 </file>
@@ -719,7 +778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -744,6 +803,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1060,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CA84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4052,18 +4115,18 @@
       <c r="BZ17" s="11"/>
       <c r="CA17" s="11"/>
     </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:79" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>133</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>34</v>
+      <c r="C18" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" s="3">
+        <v>9</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>35</v>
@@ -4072,13 +4135,13 @@
         <v>43</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>70</v>
+        <v>201</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>114</v>
@@ -4087,10 +4150,10 @@
         <v>41</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1</v>
       </c>
       <c r="N18" s="9" t="s">
         <v>58</v>
@@ -4098,77 +4161,77 @@
       <c r="O18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="P18" s="9" t="s">
-        <v>59</v>
+      <c r="P18" s="9">
+        <v>1</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="R18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="S18" s="9" t="s">
-        <v>44</v>
+      <c r="S18" s="9">
+        <v>1</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="U18" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="V18" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="W18" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="X18" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="Y18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Z18" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA18" s="9" t="s">
-        <v>47</v>
+      <c r="Z18" s="9">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="9">
+        <v>2</v>
       </c>
       <c r="AB18" s="9" t="s">
         <v>48</v>
       </c>
       <c r="AC18" s="9" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="AD18" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AE18" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF18" s="9" t="s">
-        <v>49</v>
+        <v>57</v>
+      </c>
+      <c r="AF18" s="9">
+        <v>0</v>
       </c>
       <c r="AG18" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AH18" s="9" t="s">
-        <v>49</v>
+      <c r="AH18" s="9">
+        <v>0</v>
       </c>
       <c r="AI18" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AJ18" s="6" t="s">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="AK18" s="4" t="s">
-        <v>61</v>
+        <v>196</v>
       </c>
       <c r="AL18" s="6" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AM18" s="6" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AN18" s="6" t="s">
         <v>62</v>
@@ -4194,66 +4257,128 @@
       <c r="AU18" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AV18" s="11"/>
-      <c r="AW18" s="11"/>
-      <c r="AX18" s="11"/>
-      <c r="AY18" s="11"/>
-      <c r="AZ18" s="11"/>
-      <c r="BA18" s="11"/>
-      <c r="BB18" s="11"/>
-      <c r="BC18" s="11"/>
-      <c r="BD18" s="11"/>
-      <c r="BE18" s="11"/>
-      <c r="BF18" s="11"/>
-      <c r="BG18" s="11"/>
-      <c r="BH18" s="11"/>
-      <c r="BI18" s="11"/>
-      <c r="BJ18" s="11"/>
-      <c r="BK18" s="11"/>
-      <c r="BL18" s="11"/>
-      <c r="BM18" s="11"/>
-      <c r="BN18" s="11"/>
-      <c r="BO18" s="11"/>
-      <c r="BP18" s="11"/>
-      <c r="BQ18" s="11"/>
-      <c r="BR18" s="11"/>
-      <c r="BS18" s="11"/>
-      <c r="BT18" s="11"/>
-      <c r="BU18" s="11"/>
-      <c r="BV18" s="11"/>
-      <c r="BW18" s="11"/>
-      <c r="BX18" s="11"/>
-      <c r="BY18" s="11"/>
-      <c r="BZ18" s="11"/>
-      <c r="CA18" s="11"/>
+      <c r="AV18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY18" s="11">
+        <v>1</v>
+      </c>
+      <c r="AZ18" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="BA18" s="5">
+        <v>4</v>
+      </c>
+      <c r="BB18" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD18" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF18" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG18" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH18" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI18" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="BJ18" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="BK18" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="BL18" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="BM18" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="BN18" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="BO18" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="BP18" s="15">
+        <v>7</v>
+      </c>
+      <c r="BQ18" s="15">
+        <v>1</v>
+      </c>
+      <c r="BR18" s="15">
+        <v>4</v>
+      </c>
+      <c r="BS18" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT18" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU18" s="15">
+        <v>7</v>
+      </c>
+      <c r="BV18" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="BW18" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="BX18" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="BY18" s="15"/>
+      <c r="BZ18" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="CA18" s="15" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:79" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>134</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>34</v>
+      <c r="C19" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19" s="3">
+        <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>70</v>
+        <v>201</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>114</v>
@@ -4262,10 +4387,10 @@
         <v>41</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1</v>
       </c>
       <c r="N19" s="9" t="s">
         <v>58</v>
@@ -4273,77 +4398,77 @@
       <c r="O19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="P19" s="9" t="s">
-        <v>59</v>
+      <c r="P19" s="9">
+        <v>1</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="R19" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="S19" s="9" t="s">
-        <v>44</v>
+      <c r="S19" s="9">
+        <v>1</v>
       </c>
       <c r="T19" s="9" t="s">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="U19" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="V19" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="W19" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="X19" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="Y19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Z19" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA19" s="9" t="s">
-        <v>47</v>
+      <c r="Z19" s="9">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="9">
+        <v>2</v>
       </c>
       <c r="AB19" s="9" t="s">
         <v>48</v>
       </c>
       <c r="AC19" s="9" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="AD19" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AE19" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF19" s="9" t="s">
-        <v>49</v>
+        <v>57</v>
+      </c>
+      <c r="AF19" s="9">
+        <v>0</v>
       </c>
       <c r="AG19" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AH19" s="9" t="s">
-        <v>49</v>
+      <c r="AH19" s="9">
+        <v>0</v>
       </c>
       <c r="AI19" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AJ19" s="6" t="s">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="AK19" s="4" t="s">
-        <v>61</v>
+        <v>196</v>
       </c>
       <c r="AL19" s="6" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AM19" s="6" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AN19" s="6" t="s">
         <v>62</v>
@@ -4369,38 +4494,100 @@
       <c r="AU19" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AV19" s="11"/>
-      <c r="AW19" s="11"/>
-      <c r="AX19" s="11"/>
-      <c r="AY19" s="11"/>
-      <c r="AZ19" s="11"/>
-      <c r="BA19" s="11"/>
-      <c r="BB19" s="11"/>
-      <c r="BC19" s="11"/>
-      <c r="BD19" s="11"/>
-      <c r="BE19" s="11"/>
-      <c r="BF19" s="11"/>
-      <c r="BG19" s="11"/>
-      <c r="BH19" s="11"/>
-      <c r="BI19" s="11"/>
-      <c r="BJ19" s="11"/>
-      <c r="BK19" s="11"/>
-      <c r="BL19" s="11"/>
-      <c r="BM19" s="11"/>
-      <c r="BN19" s="11"/>
-      <c r="BO19" s="11"/>
-      <c r="BP19" s="11"/>
-      <c r="BQ19" s="11"/>
-      <c r="BR19" s="11"/>
-      <c r="BS19" s="11"/>
-      <c r="BT19" s="11"/>
-      <c r="BU19" s="11"/>
-      <c r="BV19" s="11"/>
-      <c r="BW19" s="11"/>
-      <c r="BX19" s="11"/>
-      <c r="BY19" s="11"/>
-      <c r="BZ19" s="11"/>
-      <c r="CA19" s="11"/>
+      <c r="AV19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY19" s="11">
+        <v>1</v>
+      </c>
+      <c r="AZ19" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="BA19" s="5">
+        <v>4</v>
+      </c>
+      <c r="BB19" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD19" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF19" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG19" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH19" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI19" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="BJ19" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="BK19" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="BL19" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="BM19" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="BN19" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="BO19" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="BP19" s="15">
+        <v>7</v>
+      </c>
+      <c r="BQ19" s="15">
+        <v>1</v>
+      </c>
+      <c r="BR19" s="15">
+        <v>4</v>
+      </c>
+      <c r="BS19" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT19" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU19" s="15">
+        <v>7</v>
+      </c>
+      <c r="BV19" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="BW19" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="BX19" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="BY19" s="15"/>
+      <c r="BZ19" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="CA19" s="15" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="20" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
@@ -5102,18 +5289,18 @@
       <c r="BZ23" s="11"/>
       <c r="CA23" s="11"/>
     </row>
-    <row r="24" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:79" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>138</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>34</v>
+      <c r="C24" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" s="3">
+        <v>9</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>35</v>
@@ -5122,13 +5309,13 @@
         <v>43</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>70</v>
+        <v>201</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>114</v>
@@ -5137,10 +5324,10 @@
         <v>41</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1</v>
       </c>
       <c r="N24" s="9" t="s">
         <v>58</v>
@@ -5148,77 +5335,77 @@
       <c r="O24" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="P24" s="9" t="s">
-        <v>59</v>
+      <c r="P24" s="9">
+        <v>1</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="R24" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="S24" s="9" t="s">
-        <v>44</v>
+      <c r="S24" s="9">
+        <v>1</v>
       </c>
       <c r="T24" s="9" t="s">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="U24" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="V24" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="W24" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="X24" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="Y24" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Z24" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA24" s="9" t="s">
-        <v>47</v>
+      <c r="Z24" s="9">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="9">
+        <v>2</v>
       </c>
       <c r="AB24" s="9" t="s">
         <v>48</v>
       </c>
       <c r="AC24" s="9" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="AD24" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AE24" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF24" s="9" t="s">
-        <v>49</v>
+        <v>57</v>
+      </c>
+      <c r="AF24" s="9">
+        <v>0</v>
       </c>
       <c r="AG24" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AH24" s="9" t="s">
-        <v>49</v>
+      <c r="AH24" s="9">
+        <v>0</v>
       </c>
       <c r="AI24" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AJ24" s="6" t="s">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="AK24" s="4" t="s">
-        <v>61</v>
+        <v>196</v>
       </c>
       <c r="AL24" s="6" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AM24" s="6" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AN24" s="6" t="s">
         <v>62</v>
@@ -5244,51 +5431,113 @@
       <c r="AU24" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AV24" s="11"/>
-      <c r="AW24" s="11"/>
-      <c r="AX24" s="11"/>
-      <c r="AY24" s="11"/>
-      <c r="AZ24" s="11"/>
-      <c r="BA24" s="11"/>
-      <c r="BB24" s="11"/>
-      <c r="BC24" s="11"/>
-      <c r="BD24" s="11"/>
-      <c r="BE24" s="11"/>
-      <c r="BF24" s="11"/>
-      <c r="BG24" s="11"/>
-      <c r="BH24" s="11"/>
-      <c r="BI24" s="11"/>
-      <c r="BJ24" s="11"/>
-      <c r="BK24" s="11"/>
-      <c r="BL24" s="11"/>
-      <c r="BM24" s="11"/>
-      <c r="BN24" s="11"/>
-      <c r="BO24" s="11"/>
-      <c r="BP24" s="11"/>
-      <c r="BQ24" s="11"/>
-      <c r="BR24" s="11"/>
-      <c r="BS24" s="11"/>
-      <c r="BT24" s="11"/>
-      <c r="BU24" s="11"/>
-      <c r="BV24" s="11"/>
-      <c r="BW24" s="11"/>
-      <c r="BX24" s="11"/>
-      <c r="BY24" s="11"/>
-      <c r="BZ24" s="11"/>
-      <c r="CA24" s="11"/>
+      <c r="AV24" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW24" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX24" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY24" s="11">
+        <v>1</v>
+      </c>
+      <c r="AZ24" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="BA24" s="5">
+        <v>4</v>
+      </c>
+      <c r="BB24" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC24" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD24" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE24" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF24" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG24" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH24" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI24" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="BJ24" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="BK24" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="BL24" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="BM24" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="BN24" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="BO24" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="BP24" s="15">
+        <v>7</v>
+      </c>
+      <c r="BQ24" s="15">
+        <v>1</v>
+      </c>
+      <c r="BR24" s="15">
+        <v>4</v>
+      </c>
+      <c r="BS24" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT24" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU24" s="15">
+        <v>7</v>
+      </c>
+      <c r="BV24" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="BW24" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="BX24" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="BY24" s="15"/>
+      <c r="BZ24" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="CA24" s="15" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="25" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:79" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>139</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>34</v>
+      <c r="C25" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D25" s="3">
+        <v>9</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>35</v>
@@ -5297,13 +5546,13 @@
         <v>43</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>70</v>
+        <v>201</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>114</v>
@@ -5312,10 +5561,10 @@
         <v>41</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1</v>
       </c>
       <c r="N25" s="9" t="s">
         <v>58</v>
@@ -5323,77 +5572,77 @@
       <c r="O25" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="P25" s="9" t="s">
-        <v>59</v>
+      <c r="P25" s="9">
+        <v>1</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="R25" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="S25" s="9" t="s">
-        <v>44</v>
+      <c r="S25" s="9">
+        <v>1</v>
       </c>
       <c r="T25" s="9" t="s">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="U25" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="V25" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="W25" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="X25" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="Y25" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Z25" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA25" s="9" t="s">
-        <v>47</v>
+      <c r="Z25" s="9">
+        <v>2</v>
+      </c>
+      <c r="AA25" s="9">
+        <v>2</v>
       </c>
       <c r="AB25" s="9" t="s">
         <v>48</v>
       </c>
       <c r="AC25" s="9" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="AD25" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AE25" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF25" s="9" t="s">
-        <v>49</v>
+        <v>57</v>
+      </c>
+      <c r="AF25" s="9">
+        <v>0</v>
       </c>
       <c r="AG25" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AH25" s="9" t="s">
-        <v>49</v>
+      <c r="AH25" s="9">
+        <v>0</v>
       </c>
       <c r="AI25" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AJ25" s="6" t="s">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="AK25" s="4" t="s">
-        <v>61</v>
+        <v>196</v>
       </c>
       <c r="AL25" s="6" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AM25" s="6" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AN25" s="6" t="s">
         <v>62</v>
@@ -5419,38 +5668,100 @@
       <c r="AU25" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AV25" s="11"/>
-      <c r="AW25" s="11"/>
-      <c r="AX25" s="11"/>
-      <c r="AY25" s="11"/>
-      <c r="AZ25" s="11"/>
-      <c r="BA25" s="11"/>
-      <c r="BB25" s="11"/>
-      <c r="BC25" s="11"/>
-      <c r="BD25" s="11"/>
-      <c r="BE25" s="11"/>
-      <c r="BF25" s="11"/>
-      <c r="BG25" s="11"/>
-      <c r="BH25" s="11"/>
-      <c r="BI25" s="11"/>
-      <c r="BJ25" s="11"/>
-      <c r="BK25" s="11"/>
-      <c r="BL25" s="11"/>
-      <c r="BM25" s="11"/>
-      <c r="BN25" s="11"/>
-      <c r="BO25" s="11"/>
-      <c r="BP25" s="11"/>
-      <c r="BQ25" s="11"/>
-      <c r="BR25" s="11"/>
-      <c r="BS25" s="11"/>
-      <c r="BT25" s="11"/>
-      <c r="BU25" s="11"/>
-      <c r="BV25" s="11"/>
-      <c r="BW25" s="11"/>
-      <c r="BX25" s="11"/>
-      <c r="BY25" s="11"/>
-      <c r="BZ25" s="11"/>
-      <c r="CA25" s="11"/>
+      <c r="AV25" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW25" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX25" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY25" s="11">
+        <v>1</v>
+      </c>
+      <c r="AZ25" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="BA25" s="5">
+        <v>4</v>
+      </c>
+      <c r="BB25" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC25" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD25" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE25" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF25" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG25" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH25" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI25" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="BJ25" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="BK25" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="BL25" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="BM25" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="BN25" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="BO25" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="BP25" s="15">
+        <v>7</v>
+      </c>
+      <c r="BQ25" s="15">
+        <v>1</v>
+      </c>
+      <c r="BR25" s="15">
+        <v>4</v>
+      </c>
+      <c r="BS25" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT25" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU25" s="15">
+        <v>7</v>
+      </c>
+      <c r="BV25" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="BW25" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="BX25" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="BY25" s="15"/>
+      <c r="BZ25" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="CA25" s="15" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="26" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
@@ -8517,36 +8828,36 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:79" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>161</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>34</v>
+      <c r="C49" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49" s="3">
+        <v>9</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>38</v>
+        <v>201</v>
+      </c>
+      <c r="H49" s="2">
+        <v>1</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>41</v>
@@ -8554,77 +8865,207 @@
       <c r="L49" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="M49" s="2" t="s">
-        <v>38</v>
+      <c r="M49" s="2">
+        <v>1</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="O49" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="P49" s="9" t="s">
-        <v>44</v>
+      <c r="P49" s="9">
+        <v>1</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="R49" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="S49" s="9" t="s">
-        <v>44</v>
+      <c r="S49" s="9">
+        <v>1</v>
       </c>
       <c r="T49" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="U49" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="V49" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="W49" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="X49" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="U49" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V49" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="W49" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="X49" s="9" t="s">
         <v>57</v>
       </c>
       <c r="Y49" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Z49" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA49" s="9" t="s">
-        <v>47</v>
+      <c r="Z49" s="9">
+        <v>2</v>
+      </c>
+      <c r="AA49" s="9">
+        <v>2</v>
       </c>
       <c r="AB49" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AC49" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD49" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE49" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF49" s="9" t="s">
-        <v>49</v>
+      <c r="AC49" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD49" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE49" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF49" s="9">
+        <v>0</v>
       </c>
       <c r="AG49" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AH49" s="9" t="s">
-        <v>49</v>
+      <c r="AH49" s="9">
+        <v>0</v>
       </c>
       <c r="AI49" s="9" t="s">
         <v>51</v>
       </c>
+      <c r="AJ49" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK49" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL49" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM49" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN49" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO49" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP49" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ49" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR49" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS49" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT49" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU49" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV49" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW49" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX49" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY49" s="11">
+        <v>1</v>
+      </c>
+      <c r="AZ49" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="BA49" s="5">
+        <v>4</v>
+      </c>
+      <c r="BB49" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC49" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD49" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE49" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF49" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG49" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH49" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI49" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="BJ49" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="BK49" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="BL49" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="BM49" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="BN49" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="BO49" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="BP49" s="15">
+        <v>7</v>
+      </c>
+      <c r="BQ49" s="15">
+        <v>1</v>
+      </c>
+      <c r="BR49" s="15">
+        <v>4</v>
+      </c>
+      <c r="BS49" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT49" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU49" s="15">
+        <v>7</v>
+      </c>
+      <c r="BV49" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="BW49" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="BX49" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="BY49" s="15"/>
+      <c r="BZ49" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="CA49" s="15" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>162</v>
       </c>
@@ -8731,7 +9172,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>163</v>
       </c>
@@ -8838,7 +9279,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>164</v>
       </c>
@@ -8945,7 +9386,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>165</v>
       </c>
@@ -9052,7 +9493,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>166</v>
       </c>
@@ -9159,7 +9600,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>167</v>
       </c>
@@ -9266,7 +9707,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>168</v>
       </c>
@@ -9409,7 +9850,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>169</v>
       </c>
@@ -9552,7 +9993,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>170</v>
       </c>
@@ -9695,7 +10136,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>171</v>
       </c>
@@ -9838,7 +10279,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>172</v>
       </c>
@@ -9981,7 +10422,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>173</v>
       </c>
@@ -10124,7 +10565,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>174</v>
       </c>
@@ -10267,7 +10708,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>175</v>
       </c>
@@ -10410,7 +10851,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>176</v>
       </c>
@@ -10553,7 +10994,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>177</v>
       </c>
@@ -10696,7 +11137,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>178</v>
       </c>
@@ -10839,7 +11280,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>179</v>
       </c>
@@ -10982,7 +11423,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>180</v>
       </c>
@@ -11125,7 +11566,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>181</v>
       </c>
@@ -11268,7 +11709,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>182</v>
       </c>
@@ -11411,7 +11852,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>183</v>
       </c>
@@ -11554,7 +11995,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>170</v>
       </c>
@@ -11697,7 +12138,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>184</v>
       </c>
@@ -11840,7 +12281,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>185</v>
       </c>
@@ -11983,7 +12424,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>186</v>
       </c>
@@ -12126,7 +12567,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>187</v>
       </c>
@@ -12269,7 +12710,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>188</v>
       </c>
@@ -12412,7 +12853,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>189</v>
       </c>
@@ -12555,18 +12996,18 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:79" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>190</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>34</v>
+      <c r="C79" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D79" s="3">
+        <v>9</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>35</v>
@@ -12575,13 +13016,13 @@
         <v>43</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>70</v>
+        <v>201</v>
+      </c>
+      <c r="H79" s="2">
+        <v>1</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>114</v>
@@ -12590,10 +13031,10 @@
         <v>41</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M79" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
+      </c>
+      <c r="M79" s="2">
+        <v>1</v>
       </c>
       <c r="N79" s="9" t="s">
         <v>58</v>
@@ -12601,77 +13042,77 @@
       <c r="O79" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="P79" s="9" t="s">
-        <v>59</v>
+      <c r="P79" s="9">
+        <v>1</v>
       </c>
       <c r="Q79" s="9" t="s">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="R79" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="S79" s="9" t="s">
-        <v>44</v>
+      <c r="S79" s="9">
+        <v>1</v>
       </c>
       <c r="T79" s="9" t="s">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="U79" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="V79" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="W79" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="X79" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="Y79" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Z79" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA79" s="9" t="s">
-        <v>47</v>
+      <c r="Z79" s="9">
+        <v>2</v>
+      </c>
+      <c r="AA79" s="9">
+        <v>2</v>
       </c>
       <c r="AB79" s="9" t="s">
         <v>48</v>
       </c>
       <c r="AC79" s="9" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="AD79" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AE79" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF79" s="9" t="s">
-        <v>49</v>
+        <v>57</v>
+      </c>
+      <c r="AF79" s="9">
+        <v>0</v>
       </c>
       <c r="AG79" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AH79" s="9" t="s">
-        <v>49</v>
+      <c r="AH79" s="9">
+        <v>0</v>
       </c>
       <c r="AI79" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AJ79" s="6" t="s">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="AK79" s="4" t="s">
-        <v>61</v>
+        <v>196</v>
       </c>
       <c r="AL79" s="6" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AM79" s="6" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AN79" s="6" t="s">
         <v>62</v>
@@ -12697,8 +13138,102 @@
       <c r="AU79" s="6" t="s">
         <v>68</v>
       </c>
+      <c r="AV79" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW79" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX79" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY79" s="11">
+        <v>1</v>
+      </c>
+      <c r="AZ79" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="BA79" s="5">
+        <v>4</v>
+      </c>
+      <c r="BB79" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC79" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD79" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE79" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF79" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG79" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH79" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI79" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="BJ79" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="BK79" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="BL79" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="BM79" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="BN79" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="BO79" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="BP79" s="15">
+        <v>7</v>
+      </c>
+      <c r="BQ79" s="15">
+        <v>1</v>
+      </c>
+      <c r="BR79" s="15">
+        <v>4</v>
+      </c>
+      <c r="BS79" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT79" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU79" s="15">
+        <v>7</v>
+      </c>
+      <c r="BV79" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="BW79" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="BX79" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="BY79" s="15"/>
+      <c r="BZ79" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="CA79" s="15" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>191</v>
       </c>
@@ -12841,7 +13376,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>192</v>
       </c>
@@ -12984,18 +13519,18 @@
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:79" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>193</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>34</v>
+      <c r="C82" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D82" s="3">
+        <v>9</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>35</v>
@@ -13004,13 +13539,13 @@
         <v>43</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>70</v>
+        <v>201</v>
+      </c>
+      <c r="H82" s="2">
+        <v>1</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>114</v>
@@ -13019,10 +13554,10 @@
         <v>41</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M82" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
+      </c>
+      <c r="M82" s="2">
+        <v>1</v>
       </c>
       <c r="N82" s="9" t="s">
         <v>58</v>
@@ -13030,77 +13565,77 @@
       <c r="O82" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="P82" s="9" t="s">
-        <v>59</v>
+      <c r="P82" s="9">
+        <v>1</v>
       </c>
       <c r="Q82" s="9" t="s">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="R82" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="S82" s="9" t="s">
-        <v>44</v>
+      <c r="S82" s="9">
+        <v>1</v>
       </c>
       <c r="T82" s="9" t="s">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="U82" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="V82" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="W82" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="X82" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="Y82" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Z82" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA82" s="9" t="s">
-        <v>47</v>
+      <c r="Z82" s="9">
+        <v>2</v>
+      </c>
+      <c r="AA82" s="9">
+        <v>2</v>
       </c>
       <c r="AB82" s="9" t="s">
         <v>48</v>
       </c>
       <c r="AC82" s="9" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="AD82" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AE82" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF82" s="9" t="s">
-        <v>49</v>
+        <v>57</v>
+      </c>
+      <c r="AF82" s="9">
+        <v>0</v>
       </c>
       <c r="AG82" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AH82" s="9" t="s">
-        <v>49</v>
+      <c r="AH82" s="9">
+        <v>0</v>
       </c>
       <c r="AI82" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AJ82" s="6" t="s">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="AK82" s="4" t="s">
-        <v>61</v>
+        <v>196</v>
       </c>
       <c r="AL82" s="6" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AM82" s="6" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AN82" s="6" t="s">
         <v>62</v>
@@ -13126,8 +13661,102 @@
       <c r="AU82" s="6" t="s">
         <v>68</v>
       </c>
+      <c r="AV82" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW82" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX82" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY82" s="11">
+        <v>1</v>
+      </c>
+      <c r="AZ82" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="BA82" s="5">
+        <v>4</v>
+      </c>
+      <c r="BB82" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC82" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD82" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE82" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF82" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG82" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH82" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI82" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="BJ82" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="BK82" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="BL82" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="BM82" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="BN82" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="BO82" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="BP82" s="15">
+        <v>7</v>
+      </c>
+      <c r="BQ82" s="15">
+        <v>1</v>
+      </c>
+      <c r="BR82" s="15">
+        <v>4</v>
+      </c>
+      <c r="BS82" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT82" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU82" s="15">
+        <v>7</v>
+      </c>
+      <c r="BV82" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="BW82" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="BX82" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="BY82" s="15"/>
+      <c r="BZ82" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="CA82" s="15" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="83" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>194</v>
       </c>
@@ -13270,33 +13899,33 @@
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:79" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>195</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>34</v>
+      <c r="C84" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D84" s="3">
+        <v>9</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>70</v>
+        <v>201</v>
+      </c>
+      <c r="H84" s="2">
+        <v>1</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>114</v>
@@ -13305,10 +13934,10 @@
         <v>41</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M84" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
+      </c>
+      <c r="M84" s="2">
+        <v>1</v>
       </c>
       <c r="N84" s="9" t="s">
         <v>58</v>
@@ -13316,77 +13945,77 @@
       <c r="O84" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="P84" s="9" t="s">
-        <v>59</v>
+      <c r="P84" s="9">
+        <v>1</v>
       </c>
       <c r="Q84" s="9" t="s">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="R84" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="S84" s="9" t="s">
-        <v>44</v>
+      <c r="S84" s="9">
+        <v>1</v>
       </c>
       <c r="T84" s="9" t="s">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="U84" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="V84" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="W84" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="X84" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="Y84" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Z84" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA84" s="9" t="s">
-        <v>47</v>
+      <c r="Z84" s="9">
+        <v>2</v>
+      </c>
+      <c r="AA84" s="9">
+        <v>2</v>
       </c>
       <c r="AB84" s="9" t="s">
         <v>48</v>
       </c>
       <c r="AC84" s="9" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="AD84" s="9" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AE84" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF84" s="9" t="s">
-        <v>49</v>
+        <v>57</v>
+      </c>
+      <c r="AF84" s="9">
+        <v>0</v>
       </c>
       <c r="AG84" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AH84" s="9" t="s">
-        <v>49</v>
+      <c r="AH84" s="9">
+        <v>0</v>
       </c>
       <c r="AI84" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AJ84" s="6" t="s">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="AK84" s="4" t="s">
-        <v>61</v>
+        <v>196</v>
       </c>
       <c r="AL84" s="6" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AM84" s="6" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AN84" s="6" t="s">
         <v>62</v>
@@ -13411,6 +14040,100 @@
       </c>
       <c r="AU84" s="6" t="s">
         <v>68</v>
+      </c>
+      <c r="AV84" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW84" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX84" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY84" s="11">
+        <v>1</v>
+      </c>
+      <c r="AZ84" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="BA84" s="5">
+        <v>4</v>
+      </c>
+      <c r="BB84" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC84" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD84" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE84" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF84" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG84" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH84" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI84" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="BJ84" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="BK84" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="BL84" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="BM84" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="BN84" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="BO84" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="BP84" s="15">
+        <v>7</v>
+      </c>
+      <c r="BQ84" s="15">
+        <v>1</v>
+      </c>
+      <c r="BR84" s="15">
+        <v>4</v>
+      </c>
+      <c r="BS84" s="15">
+        <v>0</v>
+      </c>
+      <c r="BT84" s="15">
+        <v>0</v>
+      </c>
+      <c r="BU84" s="15">
+        <v>7</v>
+      </c>
+      <c r="BV84" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="BW84" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="BX84" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="BY84" s="15"/>
+      <c r="BZ84" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="CA84" s="15" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/input/data/Global_Material_Data.xlsx
+++ b/input/data/Global_Material_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mendix WorkSpace\Mendix_BatchRun\input\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA62A494-5CD0-462C-9E77-1EEDB1A67424}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E769E07-5085-4C22-B643-E5AA00E12024}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" tabRatio="603" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,9 +447,6 @@
     <t>109.Create_Material_JDE_with_Questionnaire_Global_And_Local_with_Rejections and Discard.xml</t>
   </si>
   <si>
-    <t>4.Change_vendor_global_&amp;_local_&amp;_Bank.xml</t>
-  </si>
-  <si>
     <t>5.Change _vendor_global _Only.xml</t>
   </si>
   <si>
@@ -672,6 +669,9 @@
   </si>
   <si>
     <t>08, Purchasing-Base Cost No Adds</t>
+  </si>
+  <si>
+    <t>4.Change_vendor_global__local__Bank.xml</t>
   </si>
 </sst>
 </file>
@@ -1123,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CA84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4123,7 +4123,7 @@
         <v>69</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D18" s="3">
         <v>9</v>
@@ -4135,7 +4135,7 @@
         <v>43</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
@@ -4165,7 +4165,7 @@
         <v>1</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R18" s="9" t="s">
         <v>45</v>
@@ -4174,7 +4174,7 @@
         <v>1</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U18" s="9" t="s">
         <v>57</v>
@@ -4201,7 +4201,7 @@
         <v>48</v>
       </c>
       <c r="AC18" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AD18" s="9" t="s">
         <v>57</v>
@@ -4222,10 +4222,10 @@
         <v>51</v>
       </c>
       <c r="AJ18" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AK18" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AL18" s="6" t="s">
         <v>57</v>
@@ -4270,13 +4270,13 @@
         <v>1</v>
       </c>
       <c r="AZ18" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA18" s="5">
         <v>4</v>
       </c>
       <c r="BB18" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BC18" s="11" t="s">
         <v>39</v>
@@ -4285,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="BE18" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BF18" s="15">
         <v>0</v>
@@ -4303,19 +4303,19 @@
         <v>50</v>
       </c>
       <c r="BK18" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BL18" s="15" t="s">
         <v>50</v>
       </c>
       <c r="BM18" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN18" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="BN18" s="15" t="s">
+      <c r="BO18" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="BO18" s="15" t="s">
-        <v>210</v>
       </c>
       <c r="BP18" s="15">
         <v>7</v>
@@ -4336,20 +4336,20 @@
         <v>7</v>
       </c>
       <c r="BV18" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="BW18" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="BW18" s="15" t="s">
+      <c r="BX18" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="BX18" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="BY18" s="15"/>
       <c r="BZ18" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="CA18" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:79" ht="23.25" x14ac:dyDescent="0.25">
@@ -4360,19 +4360,19 @@
         <v>69</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D19" s="3">
         <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
@@ -4402,7 +4402,7 @@
         <v>1</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R19" s="9" t="s">
         <v>45</v>
@@ -4411,7 +4411,7 @@
         <v>1</v>
       </c>
       <c r="T19" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U19" s="9" t="s">
         <v>57</v>
@@ -4438,7 +4438,7 @@
         <v>48</v>
       </c>
       <c r="AC19" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AD19" s="9" t="s">
         <v>57</v>
@@ -4459,10 +4459,10 @@
         <v>51</v>
       </c>
       <c r="AJ19" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AK19" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AL19" s="6" t="s">
         <v>57</v>
@@ -4507,13 +4507,13 @@
         <v>1</v>
       </c>
       <c r="AZ19" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA19" s="5">
         <v>4</v>
       </c>
       <c r="BB19" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BC19" s="11" t="s">
         <v>39</v>
@@ -4522,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="BE19" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BF19" s="15">
         <v>0</v>
@@ -4540,19 +4540,19 @@
         <v>50</v>
       </c>
       <c r="BK19" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BL19" s="15" t="s">
         <v>50</v>
       </c>
       <c r="BM19" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN19" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="BN19" s="15" t="s">
+      <c r="BO19" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="BO19" s="15" t="s">
-        <v>210</v>
       </c>
       <c r="BP19" s="15">
         <v>7</v>
@@ -4573,20 +4573,20 @@
         <v>7</v>
       </c>
       <c r="BV19" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="BW19" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="BW19" s="15" t="s">
+      <c r="BX19" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="BX19" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="BY19" s="15"/>
       <c r="BZ19" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="CA19" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:79" x14ac:dyDescent="0.25">
@@ -5297,7 +5297,7 @@
         <v>69</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D24" s="3">
         <v>9</v>
@@ -5309,7 +5309,7 @@
         <v>43</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H24" s="2">
         <v>1</v>
@@ -5339,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R24" s="9" t="s">
         <v>45</v>
@@ -5348,7 +5348,7 @@
         <v>1</v>
       </c>
       <c r="T24" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U24" s="9" t="s">
         <v>57</v>
@@ -5375,7 +5375,7 @@
         <v>48</v>
       </c>
       <c r="AC24" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AD24" s="9" t="s">
         <v>57</v>
@@ -5396,10 +5396,10 @@
         <v>51</v>
       </c>
       <c r="AJ24" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AK24" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AL24" s="6" t="s">
         <v>57</v>
@@ -5444,13 +5444,13 @@
         <v>1</v>
       </c>
       <c r="AZ24" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA24" s="5">
         <v>4</v>
       </c>
       <c r="BB24" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BC24" s="11" t="s">
         <v>39</v>
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="BE24" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BF24" s="15">
         <v>0</v>
@@ -5477,19 +5477,19 @@
         <v>50</v>
       </c>
       <c r="BK24" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BL24" s="15" t="s">
         <v>50</v>
       </c>
       <c r="BM24" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN24" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="BN24" s="15" t="s">
+      <c r="BO24" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="BO24" s="15" t="s">
-        <v>210</v>
       </c>
       <c r="BP24" s="15">
         <v>7</v>
@@ -5510,20 +5510,20 @@
         <v>7</v>
       </c>
       <c r="BV24" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="BW24" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="BW24" s="15" t="s">
+      <c r="BX24" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="BX24" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="BY24" s="15"/>
       <c r="BZ24" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="CA24" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:79" ht="23.25" x14ac:dyDescent="0.25">
@@ -5534,7 +5534,7 @@
         <v>69</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D25" s="3">
         <v>9</v>
@@ -5546,7 +5546,7 @@
         <v>43</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H25" s="2">
         <v>1</v>
@@ -5576,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R25" s="9" t="s">
         <v>45</v>
@@ -5585,7 +5585,7 @@
         <v>1</v>
       </c>
       <c r="T25" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U25" s="9" t="s">
         <v>57</v>
@@ -5612,7 +5612,7 @@
         <v>48</v>
       </c>
       <c r="AC25" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AD25" s="9" t="s">
         <v>57</v>
@@ -5633,10 +5633,10 @@
         <v>51</v>
       </c>
       <c r="AJ25" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AK25" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AL25" s="6" t="s">
         <v>57</v>
@@ -5681,13 +5681,13 @@
         <v>1</v>
       </c>
       <c r="AZ25" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA25" s="5">
         <v>4</v>
       </c>
       <c r="BB25" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BC25" s="11" t="s">
         <v>39</v>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="BE25" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BF25" s="15">
         <v>0</v>
@@ -5714,19 +5714,19 @@
         <v>50</v>
       </c>
       <c r="BK25" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BL25" s="15" t="s">
         <v>50</v>
       </c>
       <c r="BM25" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN25" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="BN25" s="15" t="s">
+      <c r="BO25" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="BO25" s="15" t="s">
-        <v>210</v>
       </c>
       <c r="BP25" s="15">
         <v>7</v>
@@ -5747,25 +5747,25 @@
         <v>7</v>
       </c>
       <c r="BV25" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="BW25" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="BW25" s="15" t="s">
+      <c r="BX25" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="BX25" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="BY25" s="15"/>
       <c r="BZ25" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="CA25" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>69</v>
@@ -5872,7 +5872,7 @@
     </row>
     <row r="27" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>69</v>
@@ -5979,7 +5979,7 @@
     </row>
     <row r="28" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>69</v>
@@ -6086,7 +6086,7 @@
     </row>
     <row r="29" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>69</v>
@@ -6193,7 +6193,7 @@
     </row>
     <row r="30" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>69</v>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="31" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>69</v>
@@ -6407,7 +6407,7 @@
     </row>
     <row r="32" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>69</v>
@@ -6514,7 +6514,7 @@
     </row>
     <row r="33" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>69</v>
@@ -6621,7 +6621,7 @@
     </row>
     <row r="34" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>69</v>
@@ -6796,7 +6796,7 @@
     </row>
     <row r="35" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>69</v>
@@ -6971,7 +6971,7 @@
     </row>
     <row r="36" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>69</v>
@@ -7114,7 +7114,7 @@
     </row>
     <row r="37" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>69</v>
@@ -7257,7 +7257,7 @@
     </row>
     <row r="38" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>69</v>
@@ -7400,7 +7400,7 @@
     </row>
     <row r="39" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>69</v>
@@ -7543,7 +7543,7 @@
     </row>
     <row r="40" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>69</v>
@@ -7686,7 +7686,7 @@
     </row>
     <row r="41" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>69</v>
@@ -7829,7 +7829,7 @@
     </row>
     <row r="42" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>69</v>
@@ -7972,7 +7972,7 @@
     </row>
     <row r="43" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>69</v>
@@ -8115,7 +8115,7 @@
     </row>
     <row r="44" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>69</v>
@@ -8258,7 +8258,7 @@
     </row>
     <row r="45" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>69</v>
@@ -8401,7 +8401,7 @@
     </row>
     <row r="46" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>69</v>
@@ -8544,7 +8544,7 @@
     </row>
     <row r="47" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>69</v>
@@ -8687,7 +8687,7 @@
     </row>
     <row r="48" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>69</v>
@@ -8830,25 +8830,25 @@
     </row>
     <row r="49" spans="1:79" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D49" s="3">
         <v>9</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="H49" s="2">
         <v>1</v>
@@ -8878,7 +8878,7 @@
         <v>1</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R49" s="9" t="s">
         <v>45</v>
@@ -8887,7 +8887,7 @@
         <v>1</v>
       </c>
       <c r="T49" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U49" s="9" t="s">
         <v>57</v>
@@ -8914,7 +8914,7 @@
         <v>48</v>
       </c>
       <c r="AC49" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AD49" s="9" t="s">
         <v>57</v>
@@ -8935,10 +8935,10 @@
         <v>51</v>
       </c>
       <c r="AJ49" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AK49" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AL49" s="6" t="s">
         <v>57</v>
@@ -8983,13 +8983,13 @@
         <v>1</v>
       </c>
       <c r="AZ49" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA49" s="5">
         <v>4</v>
       </c>
       <c r="BB49" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BC49" s="11" t="s">
         <v>39</v>
@@ -8998,7 +8998,7 @@
         <v>0</v>
       </c>
       <c r="BE49" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BF49" s="15">
         <v>0</v>
@@ -9016,19 +9016,19 @@
         <v>50</v>
       </c>
       <c r="BK49" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BL49" s="15" t="s">
         <v>50</v>
       </c>
       <c r="BM49" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN49" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="BN49" s="15" t="s">
+      <c r="BO49" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="BO49" s="15" t="s">
-        <v>210</v>
       </c>
       <c r="BP49" s="15">
         <v>7</v>
@@ -9049,25 +9049,25 @@
         <v>7</v>
       </c>
       <c r="BV49" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="BW49" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="BW49" s="15" t="s">
+      <c r="BX49" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="BX49" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="BY49" s="15"/>
       <c r="BZ49" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="CA49" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>69</v>
@@ -9174,7 +9174,7 @@
     </row>
     <row r="51" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>69</v>
@@ -9281,7 +9281,7 @@
     </row>
     <row r="52" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>69</v>
@@ -9388,7 +9388,7 @@
     </row>
     <row r="53" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>69</v>
@@ -9495,7 +9495,7 @@
     </row>
     <row r="54" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>69</v>
@@ -9602,7 +9602,7 @@
     </row>
     <row r="55" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>69</v>
@@ -9709,7 +9709,7 @@
     </row>
     <row r="56" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>69</v>
@@ -9852,7 +9852,7 @@
     </row>
     <row r="57" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>69</v>
@@ -9995,7 +9995,7 @@
     </row>
     <row r="58" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>69</v>
@@ -10138,7 +10138,7 @@
     </row>
     <row r="59" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>69</v>
@@ -10281,7 +10281,7 @@
     </row>
     <row r="60" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>69</v>
@@ -10424,7 +10424,7 @@
     </row>
     <row r="61" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>69</v>
@@ -10567,7 +10567,7 @@
     </row>
     <row r="62" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>69</v>
@@ -10710,7 +10710,7 @@
     </row>
     <row r="63" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>69</v>
@@ -10853,7 +10853,7 @@
     </row>
     <row r="64" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>69</v>
@@ -10996,7 +10996,7 @@
     </row>
     <row r="65" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>69</v>
@@ -11139,7 +11139,7 @@
     </row>
     <row r="66" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>69</v>
@@ -11282,7 +11282,7 @@
     </row>
     <row r="67" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>69</v>
@@ -11425,7 +11425,7 @@
     </row>
     <row r="68" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>69</v>
@@ -11568,7 +11568,7 @@
     </row>
     <row r="69" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>69</v>
@@ -11711,7 +11711,7 @@
     </row>
     <row r="70" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>69</v>
@@ -11854,7 +11854,7 @@
     </row>
     <row r="71" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>69</v>
@@ -11997,7 +11997,7 @@
     </row>
     <row r="72" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>69</v>
@@ -12140,7 +12140,7 @@
     </row>
     <row r="73" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>69</v>
@@ -12283,7 +12283,7 @@
     </row>
     <row r="74" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>69</v>
@@ -12426,7 +12426,7 @@
     </row>
     <row r="75" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>69</v>
@@ -12569,7 +12569,7 @@
     </row>
     <row r="76" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>69</v>
@@ -12712,7 +12712,7 @@
     </row>
     <row r="77" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>69</v>
@@ -12855,7 +12855,7 @@
     </row>
     <row r="78" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>69</v>
@@ -12998,13 +12998,13 @@
     </row>
     <row r="79" spans="1:79" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D79" s="3">
         <v>9</v>
@@ -13016,7 +13016,7 @@
         <v>43</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H79" s="2">
         <v>1</v>
@@ -13046,7 +13046,7 @@
         <v>1</v>
       </c>
       <c r="Q79" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R79" s="9" t="s">
         <v>45</v>
@@ -13055,7 +13055,7 @@
         <v>1</v>
       </c>
       <c r="T79" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U79" s="9" t="s">
         <v>57</v>
@@ -13082,7 +13082,7 @@
         <v>48</v>
       </c>
       <c r="AC79" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AD79" s="9" t="s">
         <v>57</v>
@@ -13103,10 +13103,10 @@
         <v>51</v>
       </c>
       <c r="AJ79" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AK79" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AL79" s="6" t="s">
         <v>57</v>
@@ -13151,13 +13151,13 @@
         <v>1</v>
       </c>
       <c r="AZ79" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA79" s="5">
         <v>4</v>
       </c>
       <c r="BB79" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BC79" s="11" t="s">
         <v>39</v>
@@ -13166,7 +13166,7 @@
         <v>0</v>
       </c>
       <c r="BE79" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BF79" s="15">
         <v>0</v>
@@ -13184,19 +13184,19 @@
         <v>50</v>
       </c>
       <c r="BK79" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BL79" s="15" t="s">
         <v>50</v>
       </c>
       <c r="BM79" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN79" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="BN79" s="15" t="s">
+      <c r="BO79" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="BO79" s="15" t="s">
-        <v>210</v>
       </c>
       <c r="BP79" s="15">
         <v>7</v>
@@ -13217,25 +13217,25 @@
         <v>7</v>
       </c>
       <c r="BV79" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="BW79" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="BW79" s="15" t="s">
+      <c r="BX79" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="BX79" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="BY79" s="15"/>
       <c r="BZ79" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="CA79" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>69</v>
@@ -13378,7 +13378,7 @@
     </row>
     <row r="81" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>69</v>
@@ -13521,13 +13521,13 @@
     </row>
     <row r="82" spans="1:79" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D82" s="3">
         <v>9</v>
@@ -13539,7 +13539,7 @@
         <v>43</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H82" s="2">
         <v>1</v>
@@ -13569,7 +13569,7 @@
         <v>1</v>
       </c>
       <c r="Q82" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R82" s="9" t="s">
         <v>45</v>
@@ -13578,7 +13578,7 @@
         <v>1</v>
       </c>
       <c r="T82" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U82" s="9" t="s">
         <v>57</v>
@@ -13605,7 +13605,7 @@
         <v>48</v>
       </c>
       <c r="AC82" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AD82" s="9" t="s">
         <v>57</v>
@@ -13626,10 +13626,10 @@
         <v>51</v>
       </c>
       <c r="AJ82" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AK82" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AL82" s="6" t="s">
         <v>57</v>
@@ -13674,13 +13674,13 @@
         <v>1</v>
       </c>
       <c r="AZ82" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA82" s="5">
         <v>4</v>
       </c>
       <c r="BB82" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BC82" s="11" t="s">
         <v>39</v>
@@ -13689,7 +13689,7 @@
         <v>0</v>
       </c>
       <c r="BE82" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BF82" s="15">
         <v>0</v>
@@ -13707,19 +13707,19 @@
         <v>50</v>
       </c>
       <c r="BK82" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BL82" s="15" t="s">
         <v>50</v>
       </c>
       <c r="BM82" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN82" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="BN82" s="15" t="s">
+      <c r="BO82" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="BO82" s="15" t="s">
-        <v>210</v>
       </c>
       <c r="BP82" s="15">
         <v>7</v>
@@ -13740,25 +13740,25 @@
         <v>7</v>
       </c>
       <c r="BV82" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="BW82" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="BW82" s="15" t="s">
+      <c r="BX82" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="BX82" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="BY82" s="15"/>
       <c r="BZ82" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="CA82" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>69</v>
@@ -13901,25 +13901,25 @@
     </row>
     <row r="84" spans="1:79" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D84" s="3">
         <v>9</v>
       </c>
       <c r="E84" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="H84" s="2">
         <v>1</v>
@@ -13949,7 +13949,7 @@
         <v>1</v>
       </c>
       <c r="Q84" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R84" s="9" t="s">
         <v>45</v>
@@ -13958,7 +13958,7 @@
         <v>1</v>
       </c>
       <c r="T84" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U84" s="9" t="s">
         <v>57</v>
@@ -13985,7 +13985,7 @@
         <v>48</v>
       </c>
       <c r="AC84" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AD84" s="9" t="s">
         <v>57</v>
@@ -14006,10 +14006,10 @@
         <v>51</v>
       </c>
       <c r="AJ84" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AK84" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AL84" s="6" t="s">
         <v>57</v>
@@ -14054,13 +14054,13 @@
         <v>1</v>
       </c>
       <c r="AZ84" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BA84" s="5">
         <v>4</v>
       </c>
       <c r="BB84" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BC84" s="11" t="s">
         <v>39</v>
@@ -14069,7 +14069,7 @@
         <v>0</v>
       </c>
       <c r="BE84" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BF84" s="15">
         <v>0</v>
@@ -14087,19 +14087,19 @@
         <v>50</v>
       </c>
       <c r="BK84" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BL84" s="15" t="s">
         <v>50</v>
       </c>
       <c r="BM84" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN84" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="BN84" s="15" t="s">
+      <c r="BO84" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="BO84" s="15" t="s">
-        <v>210</v>
       </c>
       <c r="BP84" s="15">
         <v>7</v>
@@ -14120,20 +14120,20 @@
         <v>7</v>
       </c>
       <c r="BV84" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="BW84" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="BW84" s="15" t="s">
+      <c r="BX84" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="BX84" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="BY84" s="15"/>
       <c r="BZ84" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="CA84" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
